--- a/front-end data updated.xlsx
+++ b/front-end data updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalla\OneDrive\Desktop\batch 1 certificates\front-end certificates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StrongBase.edu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A864F943-6F3A-4EDA-970D-939B7BE65259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0FBBC5-DC18-4201-8B4B-696B0BC9502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{54CCC7EF-2CA3-42DC-BF2C-F9755D705278}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54CCC7EF-2CA3-42DC-BF2C-F9755D705278}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="420">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1263,6 +1263,33 @@
   </si>
   <si>
     <t>FED019070</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>Sree Sowmika</t>
+  </si>
+  <si>
+    <t>FED019071</t>
+  </si>
+  <si>
+    <t>P Rama Devi</t>
+  </si>
+  <si>
+    <t>A Niveditha</t>
+  </si>
+  <si>
+    <t>FED019072</t>
+  </si>
+  <si>
+    <t>FED019073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devi Sree </t>
+  </si>
+  <si>
+    <t>FED019074</t>
   </si>
 </sst>
 </file>
@@ -1634,19 +1661,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6C3D9D-84C6-45A9-BE03-30FF4740DF49}">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1700,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1699,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1725,7 +1752,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1778,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1804,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1803,7 +1830,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -1816,11 +1843,14 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
+      <c r="O7" t="s">
+        <v>411</v>
+      </c>
       <c r="Q7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1837,7 +1867,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1863,7 +1893,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1889,7 +1919,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1915,7 +1945,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1941,7 +1971,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1967,7 +1997,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1993,7 +2023,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2019,7 +2049,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2045,7 +2075,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -2062,7 +2092,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2088,7 +2118,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -2114,7 +2144,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2140,7 +2170,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>94</v>
       </c>
@@ -2157,7 +2187,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -2183,7 +2213,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -2209,7 +2239,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -2235,7 +2265,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -2261,7 +2291,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -2287,7 +2317,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -2313,7 +2343,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -2339,7 +2369,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -2365,7 +2395,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -2391,7 +2421,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -2417,7 +2447,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -2443,7 +2473,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -2460,7 +2490,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -2486,7 +2516,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -2512,7 +2542,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -2538,7 +2568,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>171</v>
       </c>
@@ -2555,7 +2585,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -2581,7 +2611,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>179</v>
       </c>
@@ -2598,7 +2628,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -2624,7 +2654,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>187</v>
       </c>
@@ -2650,7 +2680,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -2676,7 +2706,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>197</v>
       </c>
@@ -2702,7 +2732,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -2728,7 +2758,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>207</v>
       </c>
@@ -2754,7 +2784,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>212</v>
       </c>
@@ -2780,11 +2810,11 @@
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>217</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C47" t="s">
@@ -2806,7 +2836,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>222</v>
       </c>
@@ -2823,7 +2853,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>225</v>
       </c>
@@ -2849,7 +2879,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>230</v>
       </c>
@@ -2875,7 +2905,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>235</v>
       </c>
@@ -2901,7 +2931,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>240</v>
       </c>
@@ -2927,11 +2957,11 @@
         <v>391</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>245</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C53" t="s">
@@ -2953,7 +2983,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -2979,7 +3009,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -3005,7 +3035,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>260</v>
       </c>
@@ -3031,7 +3061,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>265</v>
       </c>
@@ -3048,7 +3078,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>268</v>
       </c>
@@ -3074,7 +3104,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>273</v>
       </c>
@@ -3100,7 +3130,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>278</v>
       </c>
@@ -3126,7 +3156,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>283</v>
       </c>
@@ -3152,7 +3182,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>288</v>
       </c>
@@ -3169,7 +3199,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>291</v>
       </c>
@@ -3195,7 +3225,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>296</v>
       </c>
@@ -3221,7 +3251,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>301</v>
       </c>
@@ -3247,7 +3277,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>306</v>
       </c>
@@ -3273,7 +3303,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>311</v>
       </c>
@@ -3299,7 +3329,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>316</v>
       </c>
@@ -3325,7 +3355,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>321</v>
       </c>
@@ -3351,7 +3381,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -3377,7 +3407,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>331</v>
       </c>
@@ -3401,6 +3431,38 @@
       </c>
       <c r="Q71" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3413,6 +3475,8 @@
     <hyperlink ref="B57" r:id="rId2" xr:uid="{9ED859B7-189C-46CC-A94D-F46396866494}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{7081F379-2D38-4036-9586-AA2405A09795}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{81835DA1-280A-4B15-B3A7-B287E65FE2BD}"/>
+    <hyperlink ref="B53" r:id="rId5" xr:uid="{CAC66F63-67B9-4DE1-9335-0AAD3FB541DC}"/>
+    <hyperlink ref="B47" r:id="rId6" xr:uid="{BF282D50-4E85-4F7D-8146-130F23175EAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
